--- a/Code/Results/Cases/Case_3_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_156/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.20962515653999</v>
+        <v>15.13657353076129</v>
       </c>
       <c r="C2">
-        <v>19.08983919382135</v>
+        <v>11.17067940586771</v>
       </c>
       <c r="D2">
-        <v>4.31213841965249</v>
+        <v>3.851690780264482</v>
       </c>
       <c r="F2">
-        <v>14.57968366262477</v>
+        <v>18.77712301612766</v>
       </c>
       <c r="G2">
-        <v>17.31256271900224</v>
+        <v>19.39772137241023</v>
       </c>
       <c r="H2">
-        <v>6.711420661735011</v>
+        <v>11.83593624816265</v>
       </c>
       <c r="I2">
-        <v>7.886184290443551</v>
+        <v>15.84101858613838</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.55909442451668</v>
+        <v>14.30321865981795</v>
       </c>
       <c r="C3">
-        <v>17.8724321766568</v>
+        <v>10.50151679589502</v>
       </c>
       <c r="D3">
-        <v>4.137985357336371</v>
+        <v>3.78741438666288</v>
       </c>
       <c r="F3">
-        <v>14.14852101789815</v>
+        <v>18.87249940632003</v>
       </c>
       <c r="G3">
-        <v>16.58591037436592</v>
+        <v>19.5284803802863</v>
       </c>
       <c r="H3">
-        <v>6.825662422284997</v>
+        <v>11.92511203841327</v>
       </c>
       <c r="I3">
-        <v>8.430248783292601</v>
+        <v>16.04036731711333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.48741573547684</v>
+        <v>13.76561161901914</v>
       </c>
       <c r="C4">
-        <v>17.08340408803265</v>
+        <v>10.06644530425696</v>
       </c>
       <c r="D4">
-        <v>4.027812869441026</v>
+        <v>3.747447471700184</v>
       </c>
       <c r="F4">
-        <v>13.91700456212381</v>
+        <v>18.94204487394068</v>
       </c>
       <c r="G4">
-        <v>16.19830680567955</v>
+        <v>19.6269469956593</v>
       </c>
       <c r="H4">
-        <v>6.908980573616332</v>
+        <v>11.9837130206944</v>
       </c>
       <c r="I4">
-        <v>8.77770587063225</v>
+        <v>16.16902746109914</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.03599133947792</v>
+        <v>13.54018228269856</v>
       </c>
       <c r="C5">
-        <v>16.75141229756395</v>
+        <v>9.883105675976187</v>
       </c>
       <c r="D5">
-        <v>3.982146639152095</v>
+        <v>3.73105070080506</v>
       </c>
       <c r="F5">
-        <v>13.83092637373803</v>
+        <v>18.97311741772196</v>
       </c>
       <c r="G5">
-        <v>16.0551487731355</v>
+        <v>19.67156606130252</v>
       </c>
       <c r="H5">
-        <v>6.945997024233424</v>
+        <v>12.00855751083072</v>
       </c>
       <c r="I5">
-        <v>8.922490309315425</v>
+        <v>16.2230339394446</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.9601429212561</v>
+        <v>13.50237200546249</v>
       </c>
       <c r="C6">
-        <v>16.69565376588449</v>
+        <v>9.852298667727055</v>
       </c>
       <c r="D6">
-        <v>3.974518742055887</v>
+        <v>3.728321866988986</v>
       </c>
       <c r="F6">
-        <v>13.81712852062205</v>
+        <v>18.97844110796926</v>
       </c>
       <c r="G6">
-        <v>16.03226935899387</v>
+        <v>19.67924402254084</v>
       </c>
       <c r="H6">
-        <v>6.9523216683463</v>
+        <v>12.01274105895263</v>
       </c>
       <c r="I6">
-        <v>8.946720366232418</v>
+        <v>16.23209696159923</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.48138728508625</v>
+        <v>13.76259686301858</v>
       </c>
       <c r="C7">
-        <v>17.07896907174301</v>
+        <v>10.06399713154697</v>
       </c>
       <c r="D7">
-        <v>4.027200051874282</v>
+        <v>3.747226762723684</v>
       </c>
       <c r="F7">
-        <v>13.91581037659711</v>
+        <v>18.94245290709963</v>
       </c>
       <c r="G7">
-        <v>16.19631627237015</v>
+        <v>19.62753065833657</v>
       </c>
       <c r="H7">
-        <v>6.909467702201863</v>
+        <v>11.98404418265954</v>
       </c>
       <c r="I7">
-        <v>8.779645749511038</v>
+        <v>16.16974942513139</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.65257082766119</v>
+        <v>14.85470406809883</v>
       </c>
       <c r="C8">
-        <v>18.6786852646411</v>
+        <v>10.94499662481838</v>
       </c>
       <c r="D8">
-        <v>4.252788224084874</v>
+        <v>3.829641737158833</v>
       </c>
       <c r="F8">
-        <v>14.42409336335765</v>
+        <v>18.80771161580034</v>
       </c>
       <c r="G8">
-        <v>17.04995128550008</v>
+        <v>19.43898805756712</v>
       </c>
       <c r="H8">
-        <v>6.747922113920284</v>
+        <v>11.86588375199377</v>
       </c>
       <c r="I8">
-        <v>8.070871277713671</v>
+        <v>15.9084564115531</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.45147398017551</v>
+        <v>16.78481528197226</v>
       </c>
       <c r="C9">
-        <v>21.48757859069396</v>
+        <v>12.47934854740182</v>
       </c>
       <c r="D9">
-        <v>4.667811335344725</v>
+        <v>3.986602071055713</v>
       </c>
       <c r="F9">
-        <v>15.68499690710413</v>
+        <v>18.63188793262519</v>
       </c>
       <c r="G9">
-        <v>19.1779844329301</v>
+        <v>19.21675199175748</v>
       </c>
       <c r="H9">
-        <v>6.547642385280445</v>
+        <v>11.66483823315994</v>
       </c>
       <c r="I9">
-        <v>6.799337233721506</v>
+        <v>15.44561306761325</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.96832760688478</v>
+        <v>18.06795970058275</v>
       </c>
       <c r="C10">
-        <v>23.35423280448461</v>
+        <v>13.48777835697966</v>
       </c>
       <c r="D10">
-        <v>4.954333343945292</v>
+        <v>4.098210854966283</v>
       </c>
       <c r="F10">
-        <v>16.76984320081475</v>
+        <v>18.55817992912533</v>
       </c>
       <c r="G10">
-        <v>21.20835385717288</v>
+        <v>19.14738255427066</v>
       </c>
       <c r="H10">
-        <v>6.488966682833933</v>
+        <v>11.53602937671541</v>
       </c>
       <c r="I10">
-        <v>5.963941612109398</v>
+        <v>15.13561511307443</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.05515505431741</v>
+        <v>18.62155576339551</v>
       </c>
       <c r="C11">
-        <v>24.16153313367035</v>
+        <v>13.9206507808591</v>
       </c>
       <c r="D11">
-        <v>5.080444186948531</v>
+        <v>4.148006669693518</v>
       </c>
       <c r="F11">
-        <v>17.43586684284509</v>
+        <v>18.5369856754886</v>
       </c>
       <c r="G11">
-        <v>22.17809067711693</v>
+        <v>19.13692110414199</v>
       </c>
       <c r="H11">
-        <v>6.485429676453657</v>
+        <v>11.48158102848609</v>
       </c>
       <c r="I11">
-        <v>5.615687855116303</v>
+        <v>15.00108477095148</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.45847763584519</v>
+        <v>18.82680754233744</v>
       </c>
       <c r="C12">
-        <v>24.46130504453459</v>
+        <v>14.08084737017495</v>
       </c>
       <c r="D12">
-        <v>5.127577913351492</v>
+        <v>4.166709272799856</v>
       </c>
       <c r="F12">
-        <v>17.70602876133987</v>
+        <v>18.53075430042479</v>
       </c>
       <c r="G12">
-        <v>22.54997903192884</v>
+        <v>19.13603928129569</v>
       </c>
       <c r="H12">
-        <v>6.487747802795919</v>
+        <v>11.46156338235683</v>
       </c>
       <c r="I12">
-        <v>5.489742187391122</v>
+        <v>14.95107301294702</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.37197916242805</v>
+        <v>18.78279854488817</v>
       </c>
       <c r="C13">
-        <v>24.39700633875252</v>
+        <v>14.04651175052567</v>
       </c>
       <c r="D13">
-        <v>5.117454634000787</v>
+        <v>4.162688391732809</v>
       </c>
       <c r="F13">
-        <v>17.6478043513926</v>
+        <v>18.53201623193355</v>
       </c>
       <c r="G13">
-        <v>22.46968274030274</v>
+        <v>19.13609158640968</v>
       </c>
       <c r="H13">
-        <v>6.48708072646201</v>
+        <v>11.46584775063095</v>
       </c>
       <c r="I13">
-        <v>5.516575661207383</v>
+        <v>14.96180250719972</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.08850097505057</v>
+        <v>18.63853005147424</v>
       </c>
       <c r="C14">
-        <v>24.18631398776549</v>
+        <v>13.93390486555145</v>
       </c>
       <c r="D14">
-        <v>5.084334426357811</v>
+        <v>4.149548506192589</v>
       </c>
       <c r="F14">
-        <v>17.45807503934584</v>
+        <v>18.53643694522144</v>
       </c>
       <c r="G14">
-        <v>22.20859411065681</v>
+        <v>19.13678660124024</v>
       </c>
       <c r="H14">
-        <v>6.48554523007417</v>
+        <v>11.47992209905442</v>
       </c>
       <c r="I14">
-        <v>5.605197684688029</v>
+        <v>14.99695160165079</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.91379362728274</v>
+        <v>18.54958928006608</v>
       </c>
       <c r="C15">
-        <v>24.05648853737804</v>
+        <v>13.86444505103866</v>
       </c>
       <c r="D15">
-        <v>5.063966063388099</v>
+        <v>4.141479498556861</v>
       </c>
       <c r="F15">
-        <v>17.34197892456347</v>
+        <v>18.53937901201568</v>
       </c>
       <c r="G15">
-        <v>22.04926978169839</v>
+        <v>19.13761460578099</v>
       </c>
       <c r="H15">
-        <v>6.485090650851691</v>
+        <v>11.48862141258787</v>
       </c>
       <c r="I15">
-        <v>5.660302906317225</v>
+        <v>15.01860277433099</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.89614171816092</v>
+        <v>18.03117013658767</v>
       </c>
       <c r="C16">
-        <v>23.30063853511503</v>
+        <v>13.4589682536296</v>
       </c>
       <c r="D16">
-        <v>4.946005322985248</v>
+        <v>4.094935761982139</v>
       </c>
       <c r="F16">
-        <v>16.7360766751781</v>
+        <v>18.55981506884858</v>
       </c>
       <c r="G16">
-        <v>21.14564875479147</v>
+        <v>19.14849487812871</v>
       </c>
       <c r="H16">
-        <v>6.48969189520712</v>
+        <v>11.53967153148595</v>
       </c>
       <c r="I16">
-        <v>5.987445132340576</v>
+        <v>15.1445374619281</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.25704594537895</v>
+        <v>17.70538239048791</v>
       </c>
       <c r="C17">
-        <v>22.82628579641409</v>
+        <v>13.20359264026464</v>
       </c>
       <c r="D17">
-        <v>4.872545702589093</v>
+        <v>4.066122835090214</v>
       </c>
       <c r="F17">
-        <v>16.44386241673824</v>
+        <v>18.57552688524897</v>
       </c>
       <c r="G17">
-        <v>20.59995273371731</v>
+        <v>19.16060823158278</v>
       </c>
       <c r="H17">
-        <v>6.498679504344492</v>
+        <v>11.57205444848863</v>
       </c>
       <c r="I17">
-        <v>6.197090157812395</v>
+        <v>15.22345546354519</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.88397837683922</v>
+        <v>17.51516578781625</v>
       </c>
       <c r="C18">
-        <v>22.54950590357076</v>
+        <v>13.05427248991933</v>
       </c>
       <c r="D18">
-        <v>4.829896047339529</v>
+        <v>4.049459349070616</v>
       </c>
       <c r="F18">
-        <v>16.2789281423467</v>
+        <v>18.58572394955862</v>
       </c>
       <c r="G18">
-        <v>20.28937502918879</v>
+        <v>19.16955885163669</v>
       </c>
       <c r="H18">
-        <v>6.506008763708049</v>
+        <v>11.59107035361101</v>
       </c>
       <c r="I18">
-        <v>6.320556254454776</v>
+        <v>15.26945787089329</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.75672001579449</v>
+        <v>17.45027712150766</v>
       </c>
       <c r="C19">
-        <v>22.45511312427709</v>
+        <v>13.0032972240334</v>
       </c>
       <c r="D19">
-        <v>4.815387810923706</v>
+        <v>4.043802170225386</v>
       </c>
       <c r="F19">
-        <v>16.22362687306132</v>
+        <v>18.58937507028557</v>
       </c>
       <c r="G19">
-        <v>20.18479626560647</v>
+        <v>19.17292846401643</v>
       </c>
       <c r="H19">
-        <v>6.508851224672482</v>
+        <v>11.59757568302677</v>
       </c>
       <c r="I19">
-        <v>6.362821534280699</v>
+        <v>15.28513845108737</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.32564475167164</v>
+        <v>17.74035658809655</v>
       </c>
       <c r="C20">
-        <v>22.87718915491638</v>
+        <v>13.23102984300602</v>
       </c>
       <c r="D20">
-        <v>4.880406871438113</v>
+        <v>4.069199545530646</v>
       </c>
       <c r="F20">
-        <v>16.47464499125291</v>
+        <v>18.57373411828462</v>
       </c>
       <c r="G20">
-        <v>20.65770507177094</v>
+        <v>19.15911311280274</v>
       </c>
       <c r="H20">
-        <v>6.497496834899254</v>
+        <v>11.56856682579081</v>
       </c>
       <c r="I20">
-        <v>6.17446636130817</v>
+        <v>15.2149912950307</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.17198789408413</v>
+        <v>18.68102451841392</v>
       </c>
       <c r="C21">
-        <v>24.24835980603482</v>
+        <v>13.96708127910273</v>
       </c>
       <c r="D21">
-        <v>5.094079589766323</v>
+        <v>4.153412293922214</v>
       </c>
       <c r="F21">
-        <v>17.51377852150556</v>
+        <v>18.53508962368056</v>
       </c>
       <c r="G21">
-        <v>22.28515758097186</v>
+        <v>19.13649855224072</v>
       </c>
       <c r="H21">
-        <v>6.48589439364872</v>
+        <v>11.47577178180101</v>
       </c>
       <c r="I21">
-        <v>5.5789928099386</v>
+        <v>14.98660217579198</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.33074035306303</v>
+        <v>19.27024160115353</v>
       </c>
       <c r="C22">
-        <v>25.10995011360216</v>
+        <v>14.42643517709242</v>
       </c>
       <c r="D22">
-        <v>5.230100527996888</v>
+        <v>4.207546782005295</v>
       </c>
       <c r="F22">
-        <v>18.30175274737227</v>
+        <v>18.52030014465709</v>
       </c>
       <c r="G22">
-        <v>23.37593465791019</v>
+        <v>19.13968447206701</v>
       </c>
       <c r="H22">
-        <v>6.499776802446617</v>
+        <v>11.41862867664924</v>
       </c>
       <c r="I22">
-        <v>5.225431394996866</v>
+        <v>14.84276847890469</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.71663672536256</v>
+        <v>18.9581187564113</v>
       </c>
       <c r="C23">
-        <v>24.65323428822483</v>
+        <v>14.18325483030501</v>
       </c>
       <c r="D23">
-        <v>5.157838579924033</v>
+        <v>4.178741184967524</v>
       </c>
       <c r="F23">
-        <v>17.88072000454617</v>
+        <v>18.52722974733516</v>
       </c>
       <c r="G23">
-        <v>22.79136601190668</v>
+        <v>19.13632727894406</v>
       </c>
       <c r="H23">
-        <v>6.490296924663378</v>
+        <v>11.44880495040506</v>
       </c>
       <c r="I23">
-        <v>5.41027857755595</v>
+        <v>14.91903855714716</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.29464881663635</v>
+        <v>17.72455383471403</v>
       </c>
       <c r="C24">
-        <v>22.85418842416102</v>
+        <v>13.21863327452379</v>
       </c>
       <c r="D24">
-        <v>4.87685413397158</v>
+        <v>4.067808870641834</v>
       </c>
       <c r="F24">
-        <v>16.46071863850567</v>
+        <v>18.57454100358317</v>
       </c>
       <c r="G24">
-        <v>20.63158540044313</v>
+        <v>19.15978287182916</v>
       </c>
       <c r="H24">
-        <v>6.498024810067718</v>
+        <v>11.57014233887668</v>
       </c>
       <c r="I24">
-        <v>6.184685522490398</v>
+        <v>15.21881597865865</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.4723580603933</v>
+        <v>16.2860150313629</v>
       </c>
       <c r="C25">
-        <v>20.76256591632672</v>
+        <v>12.08509275985459</v>
       </c>
       <c r="D25">
-        <v>4.558666197001749</v>
+        <v>3.944730889141612</v>
       </c>
       <c r="F25">
-        <v>15.31572528053018</v>
+        <v>18.66981803648606</v>
       </c>
       <c r="G25">
-        <v>18.5555847796137</v>
+        <v>19.26064501161281</v>
       </c>
       <c r="H25">
-        <v>6.587598903112352</v>
+        <v>11.71592269490779</v>
       </c>
       <c r="I25">
-        <v>7.128529515803391</v>
+        <v>15.56553626496413</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_156/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_156/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.13657353076129</v>
+        <v>25.20962515654001</v>
       </c>
       <c r="C2">
-        <v>11.17067940586771</v>
+        <v>19.08983919382129</v>
       </c>
       <c r="D2">
-        <v>3.851690780264482</v>
+        <v>4.312138419652388</v>
       </c>
       <c r="F2">
-        <v>18.77712301612766</v>
+        <v>14.57968366262483</v>
       </c>
       <c r="G2">
-        <v>19.39772137241023</v>
+        <v>17.31256271900232</v>
       </c>
       <c r="H2">
-        <v>11.83593624816265</v>
+        <v>6.711420661735028</v>
       </c>
       <c r="I2">
-        <v>15.84101858613838</v>
+        <v>7.8861842904435</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.30321865981795</v>
+        <v>23.55909442451662</v>
       </c>
       <c r="C3">
-        <v>10.50151679589502</v>
+        <v>17.87243217665681</v>
       </c>
       <c r="D3">
-        <v>3.78741438666288</v>
+        <v>4.137985357336453</v>
       </c>
       <c r="F3">
-        <v>18.87249940632003</v>
+        <v>14.14852101789829</v>
       </c>
       <c r="G3">
-        <v>19.5284803802863</v>
+        <v>16.5859103743662</v>
       </c>
       <c r="H3">
-        <v>11.92511203841327</v>
+        <v>6.825662422285066</v>
       </c>
       <c r="I3">
-        <v>16.04036731711333</v>
+        <v>8.430248783292788</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.76561161901914</v>
+        <v>22.48741573547684</v>
       </c>
       <c r="C4">
-        <v>10.06644530425696</v>
+        <v>17.08340408803257</v>
       </c>
       <c r="D4">
-        <v>3.747447471700184</v>
+        <v>4.027812869441025</v>
       </c>
       <c r="F4">
-        <v>18.94204487394068</v>
+        <v>13.91700456212387</v>
       </c>
       <c r="G4">
-        <v>19.6269469956593</v>
+        <v>16.19830680567965</v>
       </c>
       <c r="H4">
-        <v>11.9837130206944</v>
+        <v>6.908980573616399</v>
       </c>
       <c r="I4">
-        <v>16.16902746109914</v>
+        <v>8.777705870632262</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.54018228269856</v>
+        <v>22.03599133947783</v>
       </c>
       <c r="C5">
-        <v>9.883105675976187</v>
+        <v>16.75141229756397</v>
       </c>
       <c r="D5">
-        <v>3.73105070080506</v>
+        <v>3.982146639152056</v>
       </c>
       <c r="F5">
-        <v>18.97311741772196</v>
+        <v>13.83092637373821</v>
       </c>
       <c r="G5">
-        <v>19.67156606130252</v>
+        <v>16.05514877313571</v>
       </c>
       <c r="H5">
-        <v>12.00855751083072</v>
+        <v>6.945997024233451</v>
       </c>
       <c r="I5">
-        <v>16.2230339394446</v>
+        <v>8.92249030931564</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.50237200546249</v>
+        <v>21.96014292125609</v>
       </c>
       <c r="C6">
-        <v>9.852298667727055</v>
+        <v>16.69565376588458</v>
       </c>
       <c r="D6">
-        <v>3.728321866988986</v>
+        <v>3.974518742055977</v>
       </c>
       <c r="F6">
-        <v>18.97844110796926</v>
+        <v>13.8171285206218</v>
       </c>
       <c r="G6">
-        <v>19.67924402254084</v>
+        <v>16.03226935899361</v>
       </c>
       <c r="H6">
-        <v>12.01274105895263</v>
+        <v>6.952321668346191</v>
       </c>
       <c r="I6">
-        <v>16.23209696159923</v>
+        <v>8.946720366232185</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.76259686301858</v>
+        <v>22.48138728508638</v>
       </c>
       <c r="C7">
-        <v>10.06399713154697</v>
+        <v>17.07896907174315</v>
       </c>
       <c r="D7">
-        <v>3.747226762723684</v>
+        <v>4.027200051874282</v>
       </c>
       <c r="F7">
-        <v>18.94245290709963</v>
+        <v>13.9158103765969</v>
       </c>
       <c r="G7">
-        <v>19.62753065833657</v>
+        <v>16.19631627236994</v>
       </c>
       <c r="H7">
-        <v>11.98404418265954</v>
+        <v>6.909467702201699</v>
       </c>
       <c r="I7">
-        <v>16.16974942513139</v>
+        <v>8.779645749510816</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.85470406809883</v>
+        <v>24.65257082766116</v>
       </c>
       <c r="C8">
-        <v>10.94499662481838</v>
+        <v>18.67868526464119</v>
       </c>
       <c r="D8">
-        <v>3.829641737158833</v>
+        <v>4.252788224084924</v>
       </c>
       <c r="F8">
-        <v>18.80771161580034</v>
+        <v>14.42409336335766</v>
       </c>
       <c r="G8">
-        <v>19.43898805756712</v>
+        <v>17.04995128550016</v>
       </c>
       <c r="H8">
-        <v>11.86588375199377</v>
+        <v>6.747922113920284</v>
       </c>
       <c r="I8">
-        <v>15.9084564115531</v>
+        <v>8.070871277713774</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.78481528197226</v>
+        <v>28.45147398017552</v>
       </c>
       <c r="C9">
-        <v>12.47934854740182</v>
+        <v>21.48757859069404</v>
       </c>
       <c r="D9">
-        <v>3.986602071055713</v>
+        <v>4.667811335344757</v>
       </c>
       <c r="F9">
-        <v>18.63188793262519</v>
+        <v>15.68499690710416</v>
       </c>
       <c r="G9">
-        <v>19.21675199175748</v>
+        <v>19.17798443293021</v>
       </c>
       <c r="H9">
-        <v>11.66483823315994</v>
+        <v>6.547642385280475</v>
       </c>
       <c r="I9">
-        <v>15.44561306761325</v>
+        <v>6.799337233721436</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.06795970058275</v>
+        <v>30.96832760688474</v>
       </c>
       <c r="C10">
-        <v>13.48777835697966</v>
+        <v>23.3542328044845</v>
       </c>
       <c r="D10">
-        <v>4.098210854966283</v>
+        <v>4.954333343945343</v>
       </c>
       <c r="F10">
-        <v>18.55817992912533</v>
+        <v>16.76984320081476</v>
       </c>
       <c r="G10">
-        <v>19.14738255427066</v>
+        <v>21.20835385717289</v>
       </c>
       <c r="H10">
-        <v>11.53602937671541</v>
+        <v>6.488966682834012</v>
       </c>
       <c r="I10">
-        <v>15.13561511307443</v>
+        <v>5.963941612109499</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.62155576339551</v>
+        <v>32.05515505431732</v>
       </c>
       <c r="C11">
-        <v>13.9206507808591</v>
+        <v>24.16153313367028</v>
       </c>
       <c r="D11">
-        <v>4.148006669693518</v>
+        <v>5.08044418694857</v>
       </c>
       <c r="F11">
-        <v>18.5369856754886</v>
+        <v>17.43586684284501</v>
       </c>
       <c r="G11">
-        <v>19.13692110414199</v>
+        <v>22.1780906771168</v>
       </c>
       <c r="H11">
-        <v>11.48158102848609</v>
+        <v>6.485429676453805</v>
       </c>
       <c r="I11">
-        <v>15.00108477095148</v>
+        <v>5.615687855116562</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.82680754233744</v>
+        <v>32.45847763584528</v>
       </c>
       <c r="C12">
-        <v>14.08084737017495</v>
+        <v>24.46130504453461</v>
       </c>
       <c r="D12">
-        <v>4.166709272799856</v>
+        <v>5.127577913351511</v>
       </c>
       <c r="F12">
-        <v>18.53075430042479</v>
+        <v>17.70602876133989</v>
       </c>
       <c r="G12">
-        <v>19.13603928129569</v>
+        <v>22.54997903192893</v>
       </c>
       <c r="H12">
-        <v>11.46156338235683</v>
+        <v>6.487747802795905</v>
       </c>
       <c r="I12">
-        <v>14.95107301294702</v>
+        <v>5.489742187391034</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.78279854488817</v>
+        <v>32.37197916242805</v>
       </c>
       <c r="C13">
-        <v>14.04651175052567</v>
+        <v>24.3970063387525</v>
       </c>
       <c r="D13">
-        <v>4.162688391732809</v>
+        <v>5.117454634000767</v>
       </c>
       <c r="F13">
-        <v>18.53201623193355</v>
+        <v>17.64780435139253</v>
       </c>
       <c r="G13">
-        <v>19.13609158640968</v>
+        <v>22.46968274030259</v>
       </c>
       <c r="H13">
-        <v>11.46584775063095</v>
+        <v>6.487080726461953</v>
       </c>
       <c r="I13">
-        <v>14.96180250719972</v>
+        <v>5.51657566120732</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.63853005147424</v>
+        <v>32.08850097505064</v>
       </c>
       <c r="C14">
-        <v>13.93390486555145</v>
+        <v>24.18631398776562</v>
       </c>
       <c r="D14">
-        <v>4.149548506192589</v>
+        <v>5.084334426357762</v>
       </c>
       <c r="F14">
-        <v>18.53643694522144</v>
+        <v>17.45807503934592</v>
       </c>
       <c r="G14">
-        <v>19.13678660124024</v>
+        <v>22.20859411065699</v>
       </c>
       <c r="H14">
-        <v>11.47992209905442</v>
+        <v>6.485545230074075</v>
       </c>
       <c r="I14">
-        <v>14.99695160165079</v>
+        <v>5.605197684687925</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.54958928006608</v>
+        <v>31.91379362728279</v>
       </c>
       <c r="C15">
-        <v>13.86444505103866</v>
+        <v>24.05648853737802</v>
       </c>
       <c r="D15">
-        <v>4.141479498556861</v>
+        <v>5.063966063388157</v>
       </c>
       <c r="F15">
-        <v>18.53937901201568</v>
+        <v>17.34197892456357</v>
       </c>
       <c r="G15">
-        <v>19.13761460578099</v>
+        <v>22.04926978169845</v>
       </c>
       <c r="H15">
-        <v>11.48862141258787</v>
+        <v>6.485090650851558</v>
       </c>
       <c r="I15">
-        <v>15.01860277433099</v>
+        <v>5.660302906317101</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.03117013658767</v>
+        <v>30.89614171816098</v>
       </c>
       <c r="C16">
-        <v>13.4589682536296</v>
+        <v>23.30063853511512</v>
       </c>
       <c r="D16">
-        <v>4.094935761982139</v>
+        <v>4.946005322985261</v>
       </c>
       <c r="F16">
-        <v>18.55981506884858</v>
+        <v>16.7360766751781</v>
       </c>
       <c r="G16">
-        <v>19.14849487812871</v>
+        <v>21.14564875479157</v>
       </c>
       <c r="H16">
-        <v>11.53967153148595</v>
+        <v>6.489691895207109</v>
       </c>
       <c r="I16">
-        <v>15.1445374619281</v>
+        <v>5.987445132340503</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.70538239048791</v>
+        <v>30.25704594537897</v>
       </c>
       <c r="C17">
-        <v>13.20359264026464</v>
+        <v>22.8262857964141</v>
       </c>
       <c r="D17">
-        <v>4.066122835090214</v>
+        <v>4.87254570258914</v>
       </c>
       <c r="F17">
-        <v>18.57552688524897</v>
+        <v>16.44386241673818</v>
       </c>
       <c r="G17">
-        <v>19.16060823158278</v>
+        <v>20.59995273371732</v>
       </c>
       <c r="H17">
-        <v>11.57205444848863</v>
+        <v>6.498679504344472</v>
       </c>
       <c r="I17">
-        <v>15.22345546354519</v>
+        <v>6.197090157812327</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.51516578781625</v>
+        <v>29.88397837683921</v>
       </c>
       <c r="C18">
-        <v>13.05427248991933</v>
+        <v>22.54950590357068</v>
       </c>
       <c r="D18">
-        <v>4.049459349070616</v>
+        <v>4.829896047339607</v>
       </c>
       <c r="F18">
-        <v>18.58572394955862</v>
+        <v>16.27892814234682</v>
       </c>
       <c r="G18">
-        <v>19.16955885163669</v>
+        <v>20.2893750291889</v>
       </c>
       <c r="H18">
-        <v>11.59107035361101</v>
+        <v>6.506008763708124</v>
       </c>
       <c r="I18">
-        <v>15.26945787089329</v>
+        <v>6.320556254454996</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.45027712150766</v>
+        <v>29.75672001579444</v>
       </c>
       <c r="C19">
-        <v>13.0032972240334</v>
+        <v>22.45511312427708</v>
       </c>
       <c r="D19">
-        <v>4.043802170225386</v>
+        <v>4.815387810923691</v>
       </c>
       <c r="F19">
-        <v>18.58937507028557</v>
+        <v>16.22362687306143</v>
       </c>
       <c r="G19">
-        <v>19.17292846401643</v>
+        <v>20.18479626560646</v>
       </c>
       <c r="H19">
-        <v>11.59757568302677</v>
+        <v>6.508851224672514</v>
       </c>
       <c r="I19">
-        <v>15.28513845108737</v>
+        <v>6.362821534280942</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.74035658809655</v>
+        <v>30.32564475167163</v>
       </c>
       <c r="C20">
-        <v>13.23102984300602</v>
+        <v>22.8771891549164</v>
       </c>
       <c r="D20">
-        <v>4.069199545530646</v>
+        <v>4.880406871438107</v>
       </c>
       <c r="F20">
-        <v>18.57373411828462</v>
+        <v>16.47464499125302</v>
       </c>
       <c r="G20">
-        <v>19.15911311280274</v>
+        <v>20.65770507177108</v>
       </c>
       <c r="H20">
-        <v>11.56856682579081</v>
+        <v>6.497496834899313</v>
       </c>
       <c r="I20">
-        <v>15.2149912950307</v>
+        <v>6.174466361308227</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.68102451841392</v>
+        <v>32.17198789408401</v>
       </c>
       <c r="C21">
-        <v>13.96708127910273</v>
+        <v>24.24835980603483</v>
       </c>
       <c r="D21">
-        <v>4.153412293922214</v>
+        <v>5.0940795897663</v>
       </c>
       <c r="F21">
-        <v>18.53508962368056</v>
+        <v>17.51377852150554</v>
       </c>
       <c r="G21">
-        <v>19.13649855224072</v>
+        <v>22.28515758097177</v>
       </c>
       <c r="H21">
-        <v>11.47577178180101</v>
+        <v>6.48589439364877</v>
       </c>
       <c r="I21">
-        <v>14.98660217579198</v>
+        <v>5.578992809938755</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.27024160115353</v>
+        <v>33.33074035306298</v>
       </c>
       <c r="C22">
-        <v>14.42643517709242</v>
+        <v>25.10995011360221</v>
       </c>
       <c r="D22">
-        <v>4.207546782005295</v>
+        <v>5.230100527996875</v>
       </c>
       <c r="F22">
-        <v>18.52030014465709</v>
+        <v>18.30175274737228</v>
       </c>
       <c r="G22">
-        <v>19.13968447206701</v>
+        <v>23.37593465791028</v>
       </c>
       <c r="H22">
-        <v>11.41862867664924</v>
+        <v>6.499776802446651</v>
       </c>
       <c r="I22">
-        <v>14.84276847890469</v>
+        <v>5.225431394996963</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.9581187564113</v>
+        <v>32.71663672536257</v>
       </c>
       <c r="C23">
-        <v>14.18325483030501</v>
+        <v>24.65323428822479</v>
       </c>
       <c r="D23">
-        <v>4.178741184967524</v>
+        <v>5.157838579924065</v>
       </c>
       <c r="F23">
-        <v>18.52722974733516</v>
+        <v>17.8807200045462</v>
       </c>
       <c r="G23">
-        <v>19.13632727894406</v>
+        <v>22.79136601190667</v>
       </c>
       <c r="H23">
-        <v>11.44880495040506</v>
+        <v>6.490296924663365</v>
       </c>
       <c r="I23">
-        <v>14.91903855714716</v>
+        <v>5.410278577555919</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.72455383471403</v>
+        <v>30.29464881663647</v>
       </c>
       <c r="C24">
-        <v>13.21863327452379</v>
+        <v>22.854188424161</v>
       </c>
       <c r="D24">
-        <v>4.067808870641834</v>
+        <v>4.876854133971633</v>
       </c>
       <c r="F24">
-        <v>18.57454100358317</v>
+        <v>16.4607186385057</v>
       </c>
       <c r="G24">
-        <v>19.15978287182916</v>
+        <v>20.63158540044343</v>
       </c>
       <c r="H24">
-        <v>11.57014233887668</v>
+        <v>6.49802481006769</v>
       </c>
       <c r="I24">
-        <v>15.21881597865865</v>
+        <v>6.184685522490226</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.2860150313629</v>
+        <v>27.47235806039335</v>
       </c>
       <c r="C25">
-        <v>12.08509275985459</v>
+        <v>20.76256591632669</v>
       </c>
       <c r="D25">
-        <v>3.944730889141612</v>
+        <v>4.558666197001742</v>
       </c>
       <c r="F25">
-        <v>18.66981803648606</v>
+        <v>15.31572528053018</v>
       </c>
       <c r="G25">
-        <v>19.26064501161281</v>
+        <v>18.55558477961374</v>
       </c>
       <c r="H25">
-        <v>11.71592269490779</v>
+        <v>6.58759890311231</v>
       </c>
       <c r="I25">
-        <v>15.56553626496413</v>
+        <v>7.128529515803283</v>
       </c>
       <c r="K25">
         <v>0</v>
